--- a/modified_tables/table_5.xlsx
+++ b/modified_tables/table_5.xlsx
@@ -14,33 +14,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>Year</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>Flexible working hours</t>
   </si>
   <si>
+    <t>100.0</t>
+  </si>
+  <si>
     <t>Full-time</t>
   </si>
   <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>80.8</t>
+  </si>
+  <si>
     <t>Of which: female</t>
   </si>
   <si>
+    <t>59.9</t>
+  </si>
+  <si>
     <t>Of which: male</t>
   </si>
   <si>
+    <t>94.6</t>
+  </si>
+  <si>
     <t>Part-time</t>
   </si>
   <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
     <t>Virtual offices</t>
   </si>
   <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
     <t>Sabbatical</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>Semi-retirement (Altersteilzeit)</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>NUMBER OF EMPLOYEES BY LOCATION</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>DZ BANK AG (total)</t>
+  </si>
+  <si>
+    <t>5,442</t>
+  </si>
+  <si>
+    <t>5,474</t>
+  </si>
+  <si>
+    <t>Germany, total</t>
+  </si>
+  <si>
+    <t>5,195</t>
+  </si>
+  <si>
+    <t>5,234</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>3,389</t>
+  </si>
+  <si>
+    <t>3,397</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Münster</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Koblenz</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Nuremberg</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>International, total</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Representative offices</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
   </si>
 </sst>
 </file>
@@ -398,48 +659,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:44">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
@@ -474,62 +825,242 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>59.9</v>
-      </c>
-      <c r="E3">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>20.1</v>
-      </c>
-      <c r="G3">
-        <v>40.1</v>
-      </c>
-      <c r="H3">
-        <v>5.4</v>
-      </c>
-      <c r="I3">
-        <v>12.8</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1.68</v>
+    <row r="3" spans="1:44">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>80.8</v>
-      </c>
-      <c r="F4">
-        <v>19.2</v>
-      </c>
-      <c r="I4">
-        <v>12.9</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1.8</v>
+    <row r="4" spans="1:44">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
